--- a/Exam_prep/Lottery.xlsx
+++ b/Exam_prep/Lottery.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\PC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Data Science\Risk Analysis\risk_analysis\Exam_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1AE997-951C-48A5-9A08-0B0647E8FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0DF374-0FE1-48FF-A874-D22A6B00F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26740" yWindow="1140" windowWidth="19200" windowHeight="10060" xr2:uid="{4A6DE1A5-BBFF-4BC4-A2AC-0B701521D326}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4A6DE1A5-BBFF-4BC4-A2AC-0B701521D326}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="E_X">Blad1!$I$6</definedName>
+    <definedName name="E_X2">Blad1!$I$7</definedName>
+    <definedName name="NumTickets">Blad1!$D$2</definedName>
+    <definedName name="V_X">Blad1!$I$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,58 +40,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Värde</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>x * p(x)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>E[X]:</t>
-  </si>
-  <si>
-    <t>Nr. Tickets</t>
   </si>
   <si>
     <t>E[X^2]:</t>
   </si>
   <si>
-    <t>x^2 * p(x)</t>
-  </si>
-  <si>
     <t>Var[X]:</t>
-  </si>
-  <si>
-    <t># Var[X] = E[X^2] - (E[X])^2</t>
   </si>
   <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>B3*B3*C3</t>
+    <t>X</t>
   </si>
   <si>
-    <t>D18/D22</t>
+    <t>Count(X)</t>
   </si>
   <si>
-    <t>E18/D22</t>
+    <t>p(x)</t>
   </si>
   <si>
-    <t>D24-(D23*D23)</t>
+    <t>Total number of Tickets:</t>
   </si>
   <si>
-    <t>Formula</t>
+    <t>X*p(x)</t>
+  </si>
+  <si>
+    <t>X^2 * p(x)</t>
+  </si>
+  <si>
+    <t>Std[X]:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +87,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,17 +161,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Beräkning" xfId="4" builtinId="22"/>
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Indata" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -141,18 +225,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62B28FE1-B6B9-4266-B514-A07C0B1E08E4}" name="Tabell1" displayName="Tabell1" ref="B2:E18" totalsRowCount="1">
-  <autoFilter ref="B2:E17" xr:uid="{62B28FE1-B6B9-4266-B514-A07C0B1E08E4}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{03860602-97E8-439F-8886-E010837CFF07}" name="Värde"/>
-    <tableColumn id="2" xr3:uid="{B10BD0B2-EC0D-4FAB-A61F-885C2AF1E9E9}" name="Antal" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Tabell1[Antal])</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62B28FE1-B6B9-4266-B514-A07C0B1E08E4}" name="Tabell1" displayName="Tabell1" ref="B4:F25" totalsRowCount="1" totalsRowCellStyle="Beräkning">
+  <autoFilter ref="B4:F24" xr:uid="{62B28FE1-B6B9-4266-B514-A07C0B1E08E4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{03860602-97E8-439F-8886-E010837CFF07}" name="X" dataCellStyle="Indata" totalsRowCellStyle="Beräkning"/>
+    <tableColumn id="2" xr3:uid="{B10BD0B2-EC0D-4FAB-A61F-885C2AF1E9E9}" name="Count(X)" totalsRowFunction="custom" dataCellStyle="Indata" totalsRowCellStyle="Beräkning">
+      <totalsRowFormula>SUM(Tabell1[Count(X)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{561B7522-ADC1-4FC1-A9EF-79986BAAD005}" name="x * p(x)" totalsRowFunction="sum" dataDxfId="1">
-      <calculatedColumnFormula>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{ED28CC3C-6510-4595-90E6-ED56DA8DF713}" name="p(x)" dataDxfId="2" dataCellStyle="Beräkning" totalsRowCellStyle="Beräkning">
+      <calculatedColumnFormula>Tabell1[[#This Row],[Count(X)]]/NumTickets</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{51E4F81A-2EC5-423B-9B57-386C3E008564}" name="x^2 * p(x)" totalsRowFunction="sum" dataDxfId="0">
-      <calculatedColumnFormula>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{561B7522-ADC1-4FC1-A9EF-79986BAAD005}" name="X*p(x)" totalsRowFunction="custom" dataDxfId="1" dataCellStyle="Beräkning" totalsRowCellStyle="Beräkning">
+      <calculatedColumnFormula>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E5:E24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{51E4F81A-2EC5-423B-9B57-386C3E008564}" name="X^2 * p(x)" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Beräkning" totalsRowCellStyle="Beräkning">
+      <calculatedColumnFormula>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -456,350 +544,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54B8874-3B86-41AE-988E-123DC0069812}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>Tabell1[[#Totals],[X*p(x)]]</f>
+        <v>5.7824999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>17.860500000000002</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <f>Tabell1[[#Totals],[X^2 * p(x)]]</f>
+        <v>762.17289999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.316</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>24.964000000000002</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>10000</v>
-      </c>
-      <c r="C3">
+      <c r="I8" s="4">
+        <f>E_X2-(E_X^2)</f>
+        <v>728.73559374999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
+      <c r="I9" s="4">
+        <f>SQRT(V_X)</f>
+        <v>26.995103143903709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.11</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="F12" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
         <v>100000</v>
       </c>
-      <c r="E3">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1000000000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4">
+      <c r="D13" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="F13" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52000</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>3.5151999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D15" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.182</v>
+      </c>
+      <c r="F15" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>4.7320000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>100000</v>
-      </c>
-      <c r="E4">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>189</v>
-      </c>
-      <c r="C5">
-        <v>5000</v>
-      </c>
-      <c r="D5">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>945000</v>
-      </c>
-      <c r="E5">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>178605000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>79</v>
-      </c>
-      <c r="C6">
-        <v>40000</v>
-      </c>
-      <c r="D6">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>3160000</v>
-      </c>
-      <c r="E6">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>249640000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>50000</v>
-      </c>
-      <c r="D7">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>850000</v>
-      </c>
-      <c r="E7">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>14450000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>40000</v>
-      </c>
-      <c r="D8">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1000000</v>
-      </c>
-      <c r="E8">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>50000</v>
-      </c>
-      <c r="D9">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1100000</v>
-      </c>
-      <c r="E9">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>24200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>70000</v>
-      </c>
-      <c r="D10">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1120000</v>
-      </c>
-      <c r="E10">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>17920000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>100000</v>
-      </c>
-      <c r="D11">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>2600000</v>
-      </c>
-      <c r="E11">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>67600000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>52000</v>
-      </c>
-      <c r="D12">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1352000</v>
-      </c>
-      <c r="E12">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>35152000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>70000</v>
-      </c>
-      <c r="D13">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>1820000</v>
-      </c>
-      <c r="E13">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>47320000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
+      <c r="C16" s="2">
         <v>20000</v>
       </c>
-      <c r="D14">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>2000000</v>
-      </c>
-      <c r="E14">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15">
+      <c r="D16" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>2E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
         <v>139</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="2">
         <v>2000</v>
       </c>
-      <c r="D15">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>278000</v>
-      </c>
-      <c r="E15">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>38642000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16">
+      <c r="D17" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>2.7800000000000002E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>3.8642000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
         <v>138</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="2">
         <v>300000</v>
       </c>
-      <c r="D16">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>41400000</v>
-      </c>
-      <c r="E16">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>5713200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="D18" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F18" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>571.31999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>200000</v>
       </c>
-      <c r="D17">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Värde]]*Tabell1[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <f>SUM(Tabell1[Antal])</f>
+      <c r="D19" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5">
+        <f>Tabell1[[#This Row],[Count(X)]]/NumTickets</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f>Tabell1[[#This Row],[X]]*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f>Tabell1[[#This Row],[X]]^2*Tabell1[[#This Row],[p(x)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
+        <f>SUM(Tabell1[Count(X)])</f>
         <v>1000010</v>
       </c>
-      <c r="D18">
-        <f>SUBTOTAL(109,Tabell1[x * p(x)])</f>
-        <v>57825000</v>
-      </c>
-      <c r="E18">
-        <f>SUBTOTAL(109,Tabell1[x^2 * p(x)])</f>
-        <v>7621729000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <f>Tabell1[[#Totals],[x * p(x)]]/D22</f>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f>SUM(E5:E24)</f>
         <v>5.7824999999999998</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <f>Tabell1[[#Totals],[x^2 * p(x)]]/D22</f>
-        <v>762.17290000000003</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>D24-(D23*D23)</f>
-        <v>728.73559375000002</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
+      <c r="F25" s="5">
+        <f>SUBTOTAL(109,Tabell1[X^2 * p(x)])</f>
+        <v>762.17289999999991</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>